--- a/biology/Microbiologie/Plasmodium_relictum/Plasmodium_relictum.xlsx
+++ b/biology/Microbiologie/Plasmodium_relictum/Plasmodium_relictum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plasmodium relictum est une espèce de protozoaires de la famille des Plasmodiidae responsable du paludisme aviaire, maladie mortelle pour de nombreuses espèces d'oiseaux. Le vecteur est le moustique Culex quinquefasciatus.
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Plasmodium relictum (Grassi &amp; Feletti (d), 1891)[1].
-L'espèce a été initialement classée dans le genre Haemamoeba sous le basionyme Haemamoeba relicta Grassi &amp; Feletti, 1891[1],[2].
-Plasmodium relictum a pour synonyme[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Plasmodium relictum (Grassi &amp; Feletti (d), 1891).
+L'espèce a été initialement classée dans le genre Haemamoeba sous le basionyme Haemamoeba relicta Grassi &amp; Feletti, 1891,.
+Plasmodium relictum a pour synonyme :
 Haemamoeba relicta Grassi &amp; Feletti, 1891</t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(it) B. Grassi et R. Feletti, « Parassiti Malarici Degli Uccelli - Classificazione dei Parassiti Malarici - Corpi Flagellati », Bulletino mensile della Accademia gioenia di scienze naturali in Catania, Catane, Inconnu, nos 18-19,‎ 1891, p. 12-19 (OCLC 5517214, lire en ligne)</t>
         </is>
